--- a/2DGraphicsModeler/Sprint-Backlog.xlsx
+++ b/2DGraphicsModeler/Sprint-Backlog.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wduong1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sprint1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sprint 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -245,102 +253,151 @@
   <si>
     <t>Create a functinal version of our program with basic functionality.</t>
   </si>
+  <si>
+    <t>Task 1 - Create move () functions for derived classes and UI movement</t>
+  </si>
+  <si>
+    <t>Arthur/William/Alex</t>
+  </si>
+  <si>
+    <t>As a user I want to see current time and elapsed time after finishing my session.</t>
+  </si>
+  <si>
+    <t>Task 1 - Display time in window title</t>
+  </si>
+  <si>
+    <t>Task 2 - Algorithm for finding time difference</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -349,34 +406,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" i="0" sz="1600"/>
+              <a:defRPr sz="1600" b="1" i="0"/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Sprint Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.04709299767281157"/>
+          <c:x val="4.7092997672811568E-2"/>
           <c:y val="0.24030314392519117"/>
-          <c:w val="0.9418877185806319"/>
+          <c:w val="0.94188771858063192"/>
           <c:h val="0.626642578768563"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
@@ -400,10 +461,74 @@
           <c:val>
             <c:numRef>
               <c:f>Sprint1!$E$33:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF9F-4A64-8E33-A2BEEE082793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="692529703"/>
         <c:axId val="690415126"/>
       </c:lineChart>
@@ -414,6 +539,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -421,9 +549,15 @@
             <a:pPr lvl="0">
               <a:defRPr b="0" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="690415126"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="690415126"/>
@@ -442,6 +576,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -455,9 +591,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="0" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="692529703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -466,12 +605,23 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -480,25 +630,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" i="0" sz="1600"/>
+              <a:defRPr sz="1600" b="1" i="0"/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Sprint Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
@@ -522,15 +676,67 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 2'!$F$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Day 1(7/15)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day5</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sprint 2'!$F$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D64-4C30-B298-A6C95DCE85A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1344753943"/>
         <c:axId val="377930693"/>
       </c:lineChart>
@@ -541,6 +747,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -548,9 +758,15 @@
             <a:pPr lvl="0">
               <a:defRPr b="0" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="377930693"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="377930693"/>
@@ -569,6 +785,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -582,9 +800,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="0" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1344753943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -593,12 +814,19 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -607,7 +835,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8067675" cy="2200275"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -618,7 +846,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -628,7 +856,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -637,9 +865,9 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4057650" cy="2914650"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -648,7 +876,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -657,29 +885,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.0"/>
-    <col customWidth="1" min="2" max="2" width="39.29"/>
-    <col customWidth="1" min="3" max="4" width="9.86"/>
-    <col customWidth="1" min="5" max="5" width="16.71"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="9" width="6.0"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="14" width="5.86"/>
-    <col customWidth="1" min="15" max="19" width="6.86"/>
-    <col customWidth="1" min="20" max="27" width="12.0"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="14" width="5.85546875" customWidth="1"/>
+    <col min="15" max="19" width="6.85546875" customWidth="1"/>
+    <col min="20" max="27" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:27" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +1185,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -746,11 +1236,11 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" ht="27.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:27" ht="27.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -760,22 +1250,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -795,8 +1285,9 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -806,13 +1297,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
         <v>0.5</v>
@@ -821,7 +1312,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -841,11 +1332,11 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" ht="28.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:27" ht="28.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -855,22 +1346,22 @@
         <v>17</v>
       </c>
       <c r="E4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -890,8 +1381,9 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -901,22 +1393,22 @@
         <v>17</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -936,14 +1428,14 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -969,8 +1461,9 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" ht="30.75" customHeight="1">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -980,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -990,7 +1483,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1007,11 +1500,11 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:27" ht="27.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1021,18 +1514,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1052,8 +1545,9 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" ht="30.75" customHeight="1">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1063,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1073,10 +1567,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1092,8 +1586,9 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:27" ht="38.25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1103,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1113,7 +1608,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1130,18 +1625,19 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:27" ht="28.5" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1155,11 +1651,11 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1170,14 +1666,22 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:27" ht="27.75" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1187,7 +1691,9 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4">
+        <v>6</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1201,25 +1707,25 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:27" ht="43.5" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="13">
-        <v>2.0</v>
+      <c r="E13" s="11">
+        <v>2</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="13">
-        <v>2.0</v>
+      <c r="G13" s="11">
+        <v>2</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1242,31 +1748,31 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" ht="40.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:27" ht="40.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>2.0</v>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1287,8 +1793,9 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1315,27 +1822,27 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" ht="30.75" customHeight="1">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1.0</v>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1358,9 +1865,9 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" ht="30.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1387,24 +1894,24 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" ht="30.75" customHeight="1">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1.0</v>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1428,32 +1935,32 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" ht="30.75" customHeight="1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.0</v>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="9">
-        <v>2.0</v>
+      <c r="H19" s="7">
+        <v>2</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="9">
-        <v>2.0</v>
+      <c r="J19" s="7">
+        <v>2</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1473,24 +1980,24 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1.0</v>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1514,34 +2021,34 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9">
-        <v>7.0</v>
+      <c r="E21" s="7">
+        <v>7</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="9">
-        <v>3.0</v>
+      <c r="K21" s="7">
+        <v>3</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="9">
-        <v>4.0</v>
+      <c r="N21" s="7">
+        <v>4</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1557,24 +2064,24 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" ht="30.75" customHeight="1">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1.0</v>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1598,30 +2105,30 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" ht="30.75" customHeight="1">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2.0</v>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1643,24 +2150,24 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" ht="30.75" customHeight="1">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2.0</v>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1684,25 +2191,25 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" ht="30.75" customHeight="1">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="9">
-        <v>1.0</v>
+      <c r="E25" s="7">
+        <v>1</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="9">
-        <v>1.0</v>
+      <c r="G25" s="7">
+        <v>1</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1725,9 +2232,9 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" ht="30.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
+    <row r="26" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1754,9 +2261,9 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" ht="30.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
+    <row r="27" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1783,8 +2290,9 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" ht="36.0" customHeight="1">
-      <c r="B28" s="8"/>
+    <row r="28" spans="1:27" ht="36" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1811,7 +2319,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:27" ht="12.75" customHeight="1">
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1834,8 +2342,8 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:27" ht="12.75" customHeight="1">
+      <c r="B30" s="10"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1862,8 +2370,8 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:27" ht="12.75" customHeight="1">
+      <c r="B31" s="10"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1890,25 +2398,25 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:27" ht="12.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <f t="shared" ref="E32:H32" si="1">SUM(E2:E28)</f>
-        <v>90</v>
+        <f t="shared" ref="E32:H32" si="0">SUM(E2:E28)</f>
+        <v>96</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="I32" s="2">
@@ -1916,43 +2424,43 @@
         <v>1.5</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" ref="J32:S32" si="2">SUM(J2:J28)</f>
+        <f t="shared" ref="J32:S32" si="1">SUM(J2:J28)</f>
         <v>4</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P32" s="2">
-        <f t="shared" si="2"/>
+      <c r="Q32" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="S32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T32" s="2"/>
@@ -1964,11 +2472,11 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:27" ht="12.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="4"/>
@@ -1976,62 +2484,62 @@
         <v>61</v>
       </c>
       <c r="E33" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F33" s="4">
         <f>E32-F32</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:S33" si="3">F33-G32</f>
-        <v>43</v>
+        <f t="shared" ref="G33:S33" si="2">F33-G32</f>
+        <v>49</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="3"/>
-        <v>33.5</v>
+        <f t="shared" si="2"/>
+        <v>39.5</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O33" s="4">
-        <f t="shared" si="3"/>
+      <c r="P33" s="4">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P33" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="Q33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="T33" s="4"/>
@@ -2043,11 +2551,11 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:27" ht="12.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2074,9 +2582,9 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+    <row r="35" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2103,9 +2611,9 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+    <row r="36" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2132,9 +2640,9 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+    <row r="37" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2161,9 +2669,9 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+    <row r="38" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2190,9 +2698,9 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+    <row r="39" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2219,9 +2727,9 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2248,9 +2756,9 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2277,9 +2785,9 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+    <row r="42" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2306,9 +2814,9 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+    <row r="43" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2335,9 +2843,9 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+    <row r="44" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2364,9 +2872,9 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+    <row r="45" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2393,9 +2901,9 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+    <row r="46" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2422,9 +2930,9 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+    <row r="47" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2451,9 +2959,9 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+    <row r="48" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2480,9 +2988,9 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2509,9 +3017,9 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+    <row r="50" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2538,9 +3046,9 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+    <row r="51" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2567,9 +3075,9 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+    <row r="52" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2596,9 +3104,9 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2625,8 +3133,8 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:27" ht="12.75" customHeight="1">
+      <c r="B54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2653,8 +3161,8 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="B55" s="6"/>
+    <row r="55" spans="1:27" ht="12.75" customHeight="1">
+      <c r="B55" s="5"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2681,9 +3189,9 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+    <row r="56" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2710,9 +3218,9 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2739,9 +3247,9 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2768,9 +3276,9 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2797,9 +3305,9 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2826,9 +3334,9 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2855,9 +3363,9 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2884,9 +3392,9 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2913,9 +3421,9 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2942,9 +3450,9 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+    <row r="65" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2971,9 +3479,9 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+    <row r="66" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3000,9 +3508,9 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+    <row r="67" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3029,9 +3537,9 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+    <row r="68" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3058,9 +3566,9 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+    <row r="69" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3087,9 +3595,9 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+    <row r="70" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3116,9 +3624,9 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+    <row r="71" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3145,9 +3653,9 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+    <row r="72" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3174,9 +3682,9 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+    <row r="73" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3203,9 +3711,9 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+    <row r="74" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3232,9 +3740,9 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+    <row r="75" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3261,9 +3769,9 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+    <row r="76" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3290,9 +3798,9 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+    <row r="77" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3319,9 +3827,9 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+    <row r="78" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3348,9 +3856,9 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+    <row r="79" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3377,9 +3885,9 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+    <row r="80" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3406,9 +3914,9 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+    <row r="81" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3435,9 +3943,9 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+    <row r="82" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3464,9 +3972,9 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+    <row r="83" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3493,9 +4001,9 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+    <row r="84" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3522,9 +4030,9 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+    <row r="85" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -3551,9 +4059,9 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+    <row r="86" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3580,9 +4088,9 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+    <row r="87" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3609,9 +4117,9 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+    <row r="88" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3638,9 +4146,9 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+    <row r="89" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3667,9 +4175,9 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+    <row r="90" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3696,9 +4204,9 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+    <row r="91" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3725,9 +4233,9 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+    <row r="92" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3754,9 +4262,9 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+    <row r="93" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -3783,9 +4291,9 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+    <row r="94" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3812,9 +4320,9 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+    <row r="95" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -3841,9 +4349,9 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+    <row r="96" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3870,9 +4378,9 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+    <row r="97" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3899,9 +4407,9 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+    <row r="98" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3928,9 +4436,9 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+    <row r="99" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3957,9 +4465,9 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+    <row r="100" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3986,9 +4494,9 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+    <row r="101" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4015,9 +4523,9 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+    <row r="102" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4044,9 +4552,9 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+    <row r="103" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4073,9 +4581,9 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+    <row r="104" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4102,9 +4610,9 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+    <row r="105" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4131,9 +4639,9 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+    <row r="106" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4160,9 +4668,9 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+    <row r="107" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4189,9 +4697,9 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+    <row r="108" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4218,9 +4726,9 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+    <row r="109" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4247,9 +4755,9 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+    <row r="110" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4276,9 +4784,9 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+    <row r="111" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4305,9 +4813,9 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+    <row r="112" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4334,9 +4842,9 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+    <row r="113" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4363,9 +4871,9 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+    <row r="114" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4392,9 +4900,9 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+    <row r="115" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4421,9 +4929,9 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+    <row r="116" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4450,9 +4958,9 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+    <row r="117" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4479,9 +4987,9 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+    <row r="118" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4508,9 +5016,9 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+    <row r="119" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4537,9 +5045,9 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+    <row r="120" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4566,9 +5074,9 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+    <row r="121" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4595,9 +5103,9 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+    <row r="122" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4624,9 +5132,9 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+    <row r="123" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4653,9 +5161,9 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+    <row r="124" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4682,9 +5190,9 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+    <row r="125" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4711,9 +5219,9 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+    <row r="126" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -4740,9 +5248,9 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+    <row r="127" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4769,9 +5277,9 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+    <row r="128" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4798,9 +5306,9 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
+    <row r="129" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4827,9 +5335,9 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
+    <row r="130" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4856,9 +5364,9 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
+    <row r="131" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -4885,9 +5393,9 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
+    <row r="132" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -4914,9 +5422,9 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+    <row r="133" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -4943,9 +5451,9 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+    <row r="134" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -4972,9 +5480,9 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+    <row r="135" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5001,9 +5509,9 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+    <row r="136" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5030,9 +5538,9 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+    <row r="137" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5059,9 +5567,9 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
+    <row r="138" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5088,9 +5596,9 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
+    <row r="139" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -5117,9 +5625,9 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
+    <row r="140" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -5146,9 +5654,9 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
+    <row r="141" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -5175,9 +5683,9 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
+    <row r="142" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -5204,9 +5712,9 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
+    <row r="143" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -5233,9 +5741,9 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
+    <row r="144" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5262,9 +5770,9 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
+    <row r="145" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -5291,9 +5799,9 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
+    <row r="146" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -5320,9 +5828,9 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+    <row r="147" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -5349,9 +5857,9 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
+    <row r="148" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5378,9 +5886,9 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+    <row r="149" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -5407,9 +5915,9 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+    <row r="150" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -5436,9 +5944,9 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+    <row r="151" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -5465,9 +5973,9 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
+    <row r="152" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -5494,9 +6002,9 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+    <row r="153" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -5523,9 +6031,9 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+    <row r="154" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -5552,9 +6060,9 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
+    <row r="155" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -5581,9 +6089,9 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+    <row r="156" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -5610,9 +6118,9 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+    <row r="157" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -5639,9 +6147,9 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
+    <row r="158" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -5668,9 +6176,9 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
+    <row r="159" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -5697,9 +6205,9 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
+    <row r="160" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -5726,9 +6234,9 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
+    <row r="161" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -5755,9 +6263,9 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
+    <row r="162" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -5784,9 +6292,9 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
+    <row r="163" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -5813,9 +6321,9 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
+    <row r="164" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -5842,9 +6350,9 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
+    <row r="165" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -5871,9 +6379,9 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
+    <row r="166" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -5900,9 +6408,9 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
+    <row r="167" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -5929,9 +6437,9 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+    <row r="168" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -5958,9 +6466,9 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
+    <row r="169" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -5987,9 +6495,9 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
+    <row r="170" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -6016,9 +6524,9 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
+    <row r="171" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -6045,9 +6553,9 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
+    <row r="172" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -6074,9 +6582,9 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
+    <row r="173" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -6103,9 +6611,9 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
+    <row r="174" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -6132,9 +6640,9 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
+    <row r="175" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -6161,9 +6669,9 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
+    <row r="176" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -6190,9 +6698,9 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
+    <row r="177" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -6219,9 +6727,9 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
+    <row r="178" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -6248,9 +6756,9 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
+    <row r="179" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -6277,9 +6785,9 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
+    <row r="180" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -6306,9 +6814,9 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
+    <row r="181" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -6335,9 +6843,9 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
+    <row r="182" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -6364,9 +6872,9 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
+    <row r="183" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -6393,9 +6901,9 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
+    <row r="184" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -6422,9 +6930,9 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
+    <row r="185" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -6451,9 +6959,9 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
+    <row r="186" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -6480,9 +6988,9 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
+    <row r="187" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -6509,9 +7017,9 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
+    <row r="188" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -6538,9 +7046,9 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
+    <row r="189" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -6567,9 +7075,9 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
+    <row r="190" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -6596,9 +7104,9 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
+    <row r="191" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -6625,9 +7133,9 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
+    <row r="192" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -6654,9 +7162,9 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
+    <row r="193" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -6683,9 +7191,9 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
+    <row r="194" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -6712,9 +7220,9 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
+    <row r="195" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -6741,9 +7249,9 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
+    <row r="196" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -6770,9 +7278,9 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
+    <row r="197" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -6799,9 +7307,9 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
+    <row r="198" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -6828,9 +7336,9 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
+    <row r="199" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -6857,9 +7365,9 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
+    <row r="200" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -6886,9 +7394,9 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
+    <row r="201" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -6915,9 +7423,9 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+    <row r="202" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -6944,9 +7452,9 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
+    <row r="203" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -6973,9 +7481,9 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
+    <row r="204" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -7002,9 +7510,9 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
+    <row r="205" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -7031,9 +7539,9 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
+    <row r="206" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -7060,9 +7568,9 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
+    <row r="207" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -7089,9 +7597,9 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
+    <row r="208" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -7118,9 +7626,9 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
+    <row r="209" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -7147,9 +7655,9 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
+    <row r="210" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -7176,9 +7684,9 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
+    <row r="211" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -7205,9 +7713,9 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
+    <row r="212" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -7234,9 +7742,9 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
+    <row r="213" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -7263,9 +7771,9 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
+    <row r="214" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -7292,9 +7800,9 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
+    <row r="215" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -7321,9 +7829,9 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
+    <row r="216" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7350,9 +7858,9 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
+    <row r="217" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7379,9 +7887,9 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
+    <row r="218" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7408,9 +7916,9 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+    <row r="219" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7437,9 +7945,9 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
+    <row r="220" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7466,9 +7974,9 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
+    <row r="221" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7495,9 +8003,9 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
+    <row r="222" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7524,9 +8032,9 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
+    <row r="223" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7553,9 +8061,9 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
+    <row r="224" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7582,9 +8090,9 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
+    <row r="225" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7611,9 +8119,9 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
+    <row r="226" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7640,9 +8148,9 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
+    <row r="227" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7669,9 +8177,9 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
-      <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
+    <row r="228" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7698,9 +8206,9 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
+    <row r="229" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7727,9 +8235,9 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
+    <row r="230" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7756,9 +8264,9 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
+    <row r="231" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7785,9 +8293,9 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
+    <row r="232" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7814,9 +8322,9 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
+    <row r="233" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7843,9 +8351,9 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
+    <row r="234" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7872,14 +8380,14 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -8661,38 +9169,37 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.0"/>
-    <col customWidth="1" min="2" max="2" width="39.29"/>
-    <col customWidth="1" min="3" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="4" width="9.86"/>
-    <col customWidth="1" min="5" max="5" width="16.71"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="9" width="6.0"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="13" width="5.86"/>
-    <col customWidth="1" min="14" max="14" width="20.14"/>
-    <col customWidth="1" min="15" max="19" width="6.86"/>
-    <col customWidth="1" min="20" max="26" width="12.0"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="19" width="6.85546875" customWidth="1"/>
+    <col min="20" max="26" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8748,11 +9255,11 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="27.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -8763,13 +9270,13 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -8788,8 +9295,9 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8800,7 +9308,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -8823,11 +9331,11 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="28.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -8837,13 +9345,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -8863,8 +9371,9 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -8874,16 +9383,16 @@
         <v>17</v>
       </c>
       <c r="E5" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8902,9 +9411,13 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -8929,12 +9442,23 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="30.75" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -8956,9 +9480,9 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:26" ht="38.25" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8984,8 +9508,9 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9011,9 +9536,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:26" ht="38.25" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9039,8 +9564,8 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:26" ht="28.5" customHeight="1">
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9066,9 +9591,9 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9094,8 +9619,9 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9121,9 +9647,9 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="40.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:26" ht="40.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -9149,8 +9675,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -9176,9 +9703,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="30.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -9204,8 +9731,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="36.0" customHeight="1">
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:26" ht="36" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -9231,8 +9759,8 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -9258,8 +9786,8 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -9285,27 +9813,27 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:H20" si="1">SUM(E2:E17)</f>
-        <v>20</v>
+        <f t="shared" ref="E20:H20" si="0">SUM(E2:E17)</f>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
@@ -9313,23 +9841,23 @@
         <v>8</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20:N20" si="2">SUM(J2:J17)</f>
+        <f t="shared" ref="J20:N20" si="1">SUM(J2:J17)</f>
         <v>9</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O20" s="2"/>
@@ -9345,50 +9873,50 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4">
         <f>E20-F20</f>
         <v>14</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:N21" si="3">F21-G20</f>
+        <f t="shared" ref="G21:N21" si="2">F21-G20</f>
         <v>14</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="O21" s="4"/>
@@ -9404,9 +9932,9 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9432,9 +9960,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -9460,9 +9988,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -9488,9 +10016,9 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -9516,9 +10044,9 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -9544,9 +10072,9 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -9572,9 +10100,9 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -9600,9 +10128,9 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -9628,9 +10156,9 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -9656,9 +10184,9 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -9684,9 +10212,9 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -9712,9 +10240,9 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -9740,9 +10268,9 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -9768,9 +10296,9 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -9796,9 +10324,9 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -9824,9 +10352,9 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -9852,9 +10380,9 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -9880,9 +10408,9 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -9908,9 +10436,9 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -9936,9 +10464,9 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -9964,11 +10492,11 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -9994,11 +10522,11 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -10024,9 +10552,9 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -10052,9 +10580,9 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -10080,9 +10608,9 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -10108,9 +10636,9 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -10136,9 +10664,9 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -10164,9 +10692,9 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -10192,9 +10720,9 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -10220,9 +10748,9 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -10248,9 +10776,9 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -10276,9 +10804,9 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -10304,9 +10832,9 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -10332,9 +10860,9 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -10360,9 +10888,9 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -10388,9 +10916,9 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -10416,9 +10944,9 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -10444,9 +10972,9 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -10472,9 +11000,9 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -10500,9 +11028,9 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -10528,9 +11056,9 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -10556,9 +11084,9 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -10584,9 +11112,9 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -10612,9 +11140,9 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -10640,9 +11168,9 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+    <row r="66" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -10668,9 +11196,9 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+    <row r="67" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -10696,9 +11224,9 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -10724,9 +11252,9 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -10752,9 +11280,9 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+    <row r="70" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -10780,9 +11308,9 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+    <row r="71" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -10808,9 +11336,9 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+    <row r="72" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -10836,9 +11364,9 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+    <row r="73" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -10864,9 +11392,9 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+    <row r="74" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -10892,9 +11420,9 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+    <row r="75" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -10920,9 +11448,9 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+    <row r="76" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -10948,9 +11476,9 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+    <row r="77" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -10976,9 +11504,9 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -11004,9 +11532,9 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -11032,9 +11560,9 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -11060,9 +11588,9 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+    <row r="81" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -11088,9 +11616,9 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+    <row r="82" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -11116,9 +11644,9 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+    <row r="83" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -11144,9 +11672,9 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+    <row r="84" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -11172,9 +11700,9 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+    <row r="85" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -11200,9 +11728,9 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+    <row r="86" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -11228,9 +11756,9 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+    <row r="87" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -11256,9 +11784,9 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+    <row r="88" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -11284,9 +11812,9 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+    <row r="89" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -11312,9 +11840,9 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+    <row r="90" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -11340,9 +11868,9 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+    <row r="91" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -11368,9 +11896,9 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+    <row r="92" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -11396,9 +11924,9 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+    <row r="93" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -11424,9 +11952,9 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+    <row r="94" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -11452,9 +11980,9 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+    <row r="95" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -11480,9 +12008,9 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+    <row r="96" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -11508,9 +12036,9 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+    <row r="97" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -11536,9 +12064,9 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+    <row r="98" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -11564,9 +12092,9 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+    <row r="99" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -11592,9 +12120,9 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+    <row r="100" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -11620,9 +12148,9 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+    <row r="101" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -11648,9 +12176,9 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+    <row r="102" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -11676,9 +12204,9 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+    <row r="103" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -11704,9 +12232,9 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+    <row r="104" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -11732,9 +12260,9 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+    <row r="105" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -11760,9 +12288,9 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+    <row r="106" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -11788,9 +12316,9 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+    <row r="107" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -11816,9 +12344,9 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+    <row r="108" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -11844,9 +12372,9 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+    <row r="109" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -11872,9 +12400,9 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -11900,9 +12428,9 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+    <row r="111" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -11928,9 +12456,9 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+    <row r="112" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -11956,9 +12484,9 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+    <row r="113" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -11984,9 +12512,9 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+    <row r="114" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -12012,9 +12540,9 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+    <row r="115" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -12040,9 +12568,9 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+    <row r="116" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -12068,9 +12596,9 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+    <row r="117" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -12096,9 +12624,9 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+    <row r="118" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -12124,9 +12652,9 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+    <row r="119" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -12152,9 +12680,9 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+    <row r="120" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -12180,9 +12708,9 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+    <row r="121" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -12208,9 +12736,9 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+    <row r="122" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -12236,9 +12764,9 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+    <row r="123" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -12264,9 +12792,9 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+    <row r="124" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -12292,9 +12820,9 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+    <row r="125" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -12320,9 +12848,9 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+    <row r="126" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -12348,9 +12876,9 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+    <row r="127" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -12376,9 +12904,9 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+    <row r="128" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -12404,9 +12932,9 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
+    <row r="129" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -12432,9 +12960,9 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
+    <row r="130" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -12460,9 +12988,9 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
+    <row r="131" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -12488,9 +13016,9 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
+    <row r="132" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -12516,9 +13044,9 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+    <row r="133" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -12544,9 +13072,9 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+    <row r="134" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -12572,9 +13100,9 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+    <row r="135" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -12600,9 +13128,9 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+    <row r="136" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -12628,9 +13156,9 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+    <row r="137" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -12656,9 +13184,9 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
+    <row r="138" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -12684,9 +13212,9 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
+    <row r="139" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -12712,9 +13240,9 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
+    <row r="140" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -12740,9 +13268,9 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
+    <row r="141" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -12768,9 +13296,9 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
+    <row r="142" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -12796,9 +13324,9 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
+    <row r="143" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -12824,9 +13352,9 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
+    <row r="144" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -12852,9 +13380,9 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
+    <row r="145" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -12880,9 +13408,9 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
+    <row r="146" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -12908,9 +13436,9 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+    <row r="147" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -12936,9 +13464,9 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
+    <row r="148" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -12964,9 +13492,9 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+    <row r="149" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -12992,9 +13520,9 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+    <row r="150" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -13020,9 +13548,9 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+    <row r="151" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -13048,9 +13576,9 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
+    <row r="152" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -13076,9 +13604,9 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+    <row r="153" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -13104,9 +13632,9 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+    <row r="154" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -13132,9 +13660,9 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
+    <row r="155" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -13160,9 +13688,9 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+    <row r="156" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -13188,9 +13716,9 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+    <row r="157" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -13216,9 +13744,9 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
+    <row r="158" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -13244,9 +13772,9 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
+    <row r="159" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -13272,9 +13800,9 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
+    <row r="160" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -13300,9 +13828,9 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
+    <row r="161" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -13328,9 +13856,9 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
+    <row r="162" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -13356,9 +13884,9 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
+    <row r="163" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -13384,9 +13912,9 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
+    <row r="164" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -13412,9 +13940,9 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
+    <row r="165" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -13440,9 +13968,9 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
+    <row r="166" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -13468,9 +13996,9 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
+    <row r="167" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -13496,9 +14024,9 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+    <row r="168" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -13524,9 +14052,9 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
+    <row r="169" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -13552,9 +14080,9 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
+    <row r="170" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -13580,9 +14108,9 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
+    <row r="171" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -13608,9 +14136,9 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
+    <row r="172" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -13636,9 +14164,9 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
+    <row r="173" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -13664,9 +14192,9 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
+    <row r="174" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -13692,9 +14220,9 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
+    <row r="175" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -13720,9 +14248,9 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
+    <row r="176" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -13748,9 +14276,9 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
+    <row r="177" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -13776,9 +14304,9 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
+    <row r="178" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -13804,9 +14332,9 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
+    <row r="179" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -13832,9 +14360,9 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
+    <row r="180" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -13860,9 +14388,9 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
+    <row r="181" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -13888,9 +14416,9 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
+    <row r="182" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -13916,9 +14444,9 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
+    <row r="183" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -13944,9 +14472,9 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
+    <row r="184" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -13972,9 +14500,9 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
+    <row r="185" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -14000,9 +14528,9 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
+    <row r="186" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -14028,9 +14556,9 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
+    <row r="187" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -14056,9 +14584,9 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
+    <row r="188" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -14084,9 +14612,9 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
+    <row r="189" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -14112,9 +14640,9 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
+    <row r="190" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -14140,9 +14668,9 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
+    <row r="191" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -14168,9 +14696,9 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
+    <row r="192" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -14196,9 +14724,9 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
+    <row r="193" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -14224,9 +14752,9 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
+    <row r="194" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -14252,9 +14780,9 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
+    <row r="195" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -14280,9 +14808,9 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
+    <row r="196" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -14308,9 +14836,9 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
+    <row r="197" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -14336,9 +14864,9 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
+    <row r="198" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -14364,9 +14892,9 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
+    <row r="199" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -14392,9 +14920,9 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
+    <row r="200" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -14420,9 +14948,9 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
+    <row r="201" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -14448,9 +14976,9 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+    <row r="202" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -14476,9 +15004,9 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
+    <row r="203" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -14504,9 +15032,9 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
+    <row r="204" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -14532,9 +15060,9 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
+    <row r="205" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -14560,9 +15088,9 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
+    <row r="206" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -14588,9 +15116,9 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
+    <row r="207" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -14616,9 +15144,9 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
+    <row r="208" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -14644,9 +15172,9 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
+    <row r="209" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -14672,9 +15200,9 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
+    <row r="210" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -14700,9 +15228,9 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
+    <row r="211" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -14728,9 +15256,9 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
+    <row r="212" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -14756,9 +15284,9 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
+    <row r="213" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -14784,9 +15312,9 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
+    <row r="214" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -14812,9 +15340,9 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
+    <row r="215" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -14840,9 +15368,9 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
+    <row r="216" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -14868,9 +15396,9 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
+    <row r="217" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -14896,9 +15424,9 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
+    <row r="218" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -14924,9 +15452,9 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+    <row r="219" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -14952,9 +15480,9 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
+    <row r="220" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -14980,9 +15508,9 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
+    <row r="221" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -15008,9 +15536,9 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
+    <row r="222" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -15036,9 +15564,9 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
+    <row r="223" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -15064,9 +15592,9 @@
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
+    <row r="224" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -15092,9 +15620,9 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
+    <row r="225" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -15120,9 +15648,9 @@
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
+    <row r="226" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -15148,9 +15676,9 @@
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
+    <row r="227" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -15176,9 +15704,9 @@
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
-      <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
+    <row r="228" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -15204,9 +15732,9 @@
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
+    <row r="229" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -15232,9 +15760,9 @@
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
+    <row r="230" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -15260,9 +15788,9 @@
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
+    <row r="231" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -15288,9 +15816,9 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
+    <row r="232" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -15316,9 +15844,9 @@
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
+    <row r="233" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -15344,9 +15872,9 @@
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
+    <row r="234" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -15372,9 +15900,9 @@
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
+    <row r="235" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -15400,9 +15928,9 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
+    <row r="236" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -15428,9 +15956,9 @@
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
+    <row r="237" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -15456,9 +15984,9 @@
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
+    <row r="238" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -15484,9 +16012,9 @@
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
+    <row r="239" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -15512,9 +16040,9 @@
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
+    <row r="240" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -15540,9 +16068,9 @@
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
+    <row r="241" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -15568,9 +16096,9 @@
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
+    <row r="242" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -15596,9 +16124,9 @@
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
+    <row r="243" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -15624,19 +16152,19 @@
       <c r="Y243" s="4"/>
       <c r="Z243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -16391,9 +16919,8 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>